--- a/labs/geo-growth/lab-geometric.xlsx
+++ b/labs/geo-growth/lab-geometric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">B</t>
   </si>
@@ -53,10 +53,13 @@
     <t xml:space="preserve">Actual human population size</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2.4: Lambda (Nt / Nt-1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q2.1: Growth rate (r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2.4: lambda for predicted human population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2.4: lambda for actual human population</t>
   </si>
   <si>
     <t xml:space="preserve">Answer question 2.5 below</t>
@@ -150,40 +153,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,11 +449,11 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -564,35 +575,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="34.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="31.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="12.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="15.3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="82.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +627,13 @@
         <v>7.02</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -618,159 +645,234 @@
       <c r="C3" s="4" t="n">
         <v>7.11</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="0" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2012</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="0" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2013</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="0" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2014</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="0" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>2015</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="0" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>2016</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="0" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>2017</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="0" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>2018</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="0" t="n">
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="n">
         <v>7.89</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="G12" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="0" t="n">
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="n">
         <v>7.95</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="G13" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="0" t="n">
+      <c r="B14" s="9"/>
+      <c r="C14" s="5" t="n">
         <v>8.02</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="G14" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>2023</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="0" t="n">
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="n">
         <v>8.09</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="G15" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="0" t="n">
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="n">
         <v>8.16</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="G16" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>2025</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="0" t="n">
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="n">
         <v>8.23</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="G17" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:I21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/labs/geo-growth/lab-geometric.xlsx
+++ b/labs/geo-growth/lab-geometric.xlsx
@@ -153,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +175,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,6 +187,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,7 +458,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,7 +586,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -588,31 +596,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="12.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="15.3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="82.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -627,13 +635,11 @@
         <v>7.02</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="8"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="4"/>
       <c r="G2" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -651,14 +657,14 @@
       <c r="G3" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="n">
         <v>7.2</v>
       </c>
@@ -668,190 +674,190 @@
       <c r="G4" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5" t="n">
         <v>7.29</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="5" t="n">
         <v>7.38</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5" t="n">
         <v>7.47</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5" t="n">
         <v>7.56</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5" t="n">
         <v>7.65</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5" t="n">
         <v>7.73</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="5" t="n">
         <v>7.81</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="5" t="n">
         <v>7.89</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="n">
         <v>7.95</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="5" t="n">
         <v>8.02</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>2023</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="5" t="n">
         <v>8.09</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>2023</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="n">
         <v>8.16</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>2025</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="n">
         <v>8.23</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>2025</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -860,15 +866,15 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/labs/geo-growth/lab-geometric.xlsx
+++ b/labs/geo-growth/lab-geometric.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2.2: Geometric growth model predictions of human population size (billions)</t>
+    <t xml:space="preserve">Q2.2: Predicted human population size (billions)</t>
   </si>
   <si>
     <t xml:space="preserve">Actual human population size</t>
@@ -458,10 +458,10 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -586,10 +586,10 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="31.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="12.24"/>
